--- a/CalibrationCompare.xlsx
+++ b/CalibrationCompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericks_c\Documents\UVcamera\Rasberry-PI-UV-Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99CAC56-D787-46EA-AA06-7278806083FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8DAD9B-4248-47EB-818B-D6F0559C480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14835" yWindow="360" windowWidth="13935" windowHeight="13935" xr2:uid="{234BA0BA-B413-4512-9DFC-23FB56ACF6FC}"/>
   </bookViews>
